--- a/src/files/paid.xlsx
+++ b/src/files/paid.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="204">
   <si>
     <t>ID</t>
   </si>
@@ -64,7 +64,7 @@
     <t>Лідія!</t>
   </si>
   <si>
-    <t>степанов</t>
+    <t>Cтепанов</t>
   </si>
   <si>
     <t>zep77@mail.ru</t>
@@ -82,16 +82,19 @@
     <t>pro</t>
   </si>
   <si>
-    <t>Новый</t>
+    <t>In work</t>
   </si>
   <si>
     <t>2021-08-04T18:18:23Z</t>
   </si>
   <si>
+    <t>Admin</t>
+  </si>
+  <si>
     <t>"63ebaabe03a5c7545d29f79f"</t>
   </si>
   <si>
-    <t>Дмитро</t>
+    <t>test</t>
   </si>
   <si>
     <t>алексей</t>
@@ -112,6 +115,9 @@
     <t>minimal</t>
   </si>
   <si>
+    <t>New</t>
+  </si>
+  <si>
     <t>2021-08-05T08:25:48Z</t>
   </si>
   <si>
@@ -124,9 +130,6 @@
     <t>пехов</t>
   </si>
   <si>
-    <t>xxxxxtvxxxxx@bk.ru</t>
-  </si>
-  <si>
     <t>8(926) 542-63-11</t>
   </si>
   <si>
@@ -157,42 +160,24 @@
     <t>2021-08-05T12:01:37Z</t>
   </si>
   <si>
-    <t>"63ebaabe03a5c7545d29f7a2"</t>
-  </si>
-  <si>
-    <t>Игорь</t>
-  </si>
-  <si>
-    <t>абдусамадова</t>
-  </si>
-  <si>
-    <t>xxxvolkovxxx@bk.ru</t>
-  </si>
-  <si>
-    <t>8(989) 454-33-42</t>
+    <t>"63ebaabe03a5c7545d29f7a3"</t>
+  </si>
+  <si>
+    <t>Денис</t>
+  </si>
+  <si>
+    <t>григорьев</t>
+  </si>
+  <si>
+    <t>toha2507@mail.ru</t>
+  </si>
+  <si>
+    <t>8(977) 898-14-82</t>
   </si>
   <si>
     <t>JSCX</t>
   </si>
   <si>
-    <t>2021-08-05T13:40:30Z</t>
-  </si>
-  <si>
-    <t>"63ebaabe03a5c7545d29f7a3"</t>
-  </si>
-  <si>
-    <t>Денис</t>
-  </si>
-  <si>
-    <t>григорьев</t>
-  </si>
-  <si>
-    <t>toha2507@mail.ru</t>
-  </si>
-  <si>
-    <t>8(977) 898-14-82</t>
-  </si>
-  <si>
     <t>2021-08-05T18:58:13Z</t>
   </si>
   <si>
@@ -253,19 +238,391 @@
     <t>"63ebaabe03a5c7545d29f7a7"</t>
   </si>
   <si>
+    <t>Ольга!</t>
+  </si>
+  <si>
+    <t>петрова</t>
+  </si>
+  <si>
+    <t>denboe7@126.com</t>
+  </si>
+  <si>
+    <t>8(903) 535-06-61</t>
+  </si>
+  <si>
+    <t>Agree</t>
+  </si>
+  <si>
+    <t>2021-08-06T17:04:15Z</t>
+  </si>
+  <si>
+    <t>"63ebaabe03a5c7545d29f7a9"</t>
+  </si>
+  <si>
+    <t>Юрій!</t>
+  </si>
+  <si>
+    <t>нефедов</t>
+  </si>
+  <si>
+    <t>kostyukova-y@yandex.ru</t>
+  </si>
+  <si>
+    <t>8(903) 102-32-09</t>
+  </si>
+  <si>
+    <t>2021-08-07T06:36:10Z</t>
+  </si>
+  <si>
+    <t>"63ebaabe03a5c7545d29f7aa"</t>
+  </si>
+  <si>
+    <t>Максим</t>
+  </si>
+  <si>
+    <t>островский</t>
+  </si>
+  <si>
+    <t>Lypi-Ly@yandex.ru</t>
+  </si>
+  <si>
+    <t>8(977) 552-39-02</t>
+  </si>
+  <si>
+    <t>2021-08-07T16:22:50Z</t>
+  </si>
+  <si>
+    <t>"63ebaabe03a5c7545d29f7ab"</t>
+  </si>
+  <si>
+    <t>Никита</t>
+  </si>
+  <si>
+    <t>смолина</t>
+  </si>
+  <si>
+    <t>rufmikh@yandex.ru</t>
+  </si>
+  <si>
+    <t>8(903) 205-05-92</t>
+  </si>
+  <si>
+    <t>2021-08-08T13:48:26Z</t>
+  </si>
+  <si>
+    <t>"63ebaabe03a5c7545d29f7ac"</t>
+  </si>
+  <si>
+    <t>Даша</t>
+  </si>
+  <si>
+    <t>полей</t>
+  </si>
+  <si>
+    <t>anyonovydod1982@mail.ru</t>
+  </si>
+  <si>
+    <t>8(916) 166-94-24</t>
+  </si>
+  <si>
+    <t>2021-08-09T08:40:36Z</t>
+  </si>
+  <si>
+    <t>"63ebaabe03a5c7545d29f7ad"</t>
+  </si>
+  <si>
+    <t>Руслан</t>
+  </si>
+  <si>
+    <t>михейкина</t>
+  </si>
+  <si>
+    <t>vamkvant@gmail.com</t>
+  </si>
+  <si>
+    <t>8(903) 151-31-53</t>
+  </si>
+  <si>
+    <t>2021-08-09T11:31:48Z</t>
+  </si>
+  <si>
+    <t>"63ebaabe03a5c7545d29f7ae"</t>
+  </si>
+  <si>
+    <t>Ірина</t>
+  </si>
+  <si>
+    <t>карташова</t>
+  </si>
+  <si>
+    <t>Andrei_death@mail.ru</t>
+  </si>
+  <si>
+    <t>8(962) 966-13-70</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>2021-08-09T21:39:52Z</t>
+  </si>
+  <si>
+    <t>"63ebaabe03a5c7545d29f7af"</t>
+  </si>
+  <si>
+    <t>Таїса</t>
+  </si>
+  <si>
+    <t>пивовр</t>
+  </si>
+  <si>
+    <t>lvl@fpoczt.com.pl</t>
+  </si>
+  <si>
+    <t>8(917) 523-24-03</t>
+  </si>
+  <si>
+    <t>PCX</t>
+  </si>
+  <si>
+    <t>2021-08-10T10:38:41Z</t>
+  </si>
+  <si>
+    <t>"63ebaabe03a5c7545d29f7b0"</t>
+  </si>
+  <si>
+    <t>Nikola</t>
+  </si>
+  <si>
+    <t>симонова</t>
+  </si>
+  <si>
+    <t>artem_pristavka@mail.ru</t>
+  </si>
+  <si>
+    <t>8(905) 564-38-58</t>
+  </si>
+  <si>
+    <t>2021-08-10T18:10:03Z</t>
+  </si>
+  <si>
+    <t>"63ebaabe03a5c7545d29f7b1"</t>
+  </si>
+  <si>
+    <t>мосевнин</t>
+  </si>
+  <si>
+    <t>ampanasyuk@gmail.com</t>
+  </si>
+  <si>
+    <t>8(977) 282-82-41</t>
+  </si>
+  <si>
+    <t>2021-08-10T18:14:09Z</t>
+  </si>
+  <si>
+    <t>"63ebaabe03a5c7545d29f7b2"</t>
+  </si>
+  <si>
+    <t>Віктор</t>
+  </si>
+  <si>
+    <t>дударева</t>
+  </si>
+  <si>
+    <t>lesiu@smsyurodzinowe.pl</t>
+  </si>
+  <si>
+    <t>8(965) 167-20-00</t>
+  </si>
+  <si>
+    <t>2021-08-11T11:13:41Z</t>
+  </si>
+  <si>
+    <t>"63ebaabe03a5c7545d29f7b3"</t>
+  </si>
+  <si>
+    <t>шварц</t>
+  </si>
+  <si>
+    <t>boniek@smsyurodzinowe.pl</t>
+  </si>
+  <si>
+    <t>8(926) 257-85-87</t>
+  </si>
+  <si>
+    <t>2021-08-11T11:27:34Z</t>
+  </si>
+  <si>
+    <t>"63ebaabe03a5c7545d29f7b4"</t>
+  </si>
+  <si>
+    <t>Богдан</t>
+  </si>
+  <si>
+    <t>сергей</t>
+  </si>
+  <si>
+    <t>liza_zdanevich@rambler.ru</t>
+  </si>
+  <si>
+    <t>8(916) 483-72-26</t>
+  </si>
+  <si>
+    <t>2021-08-12T09:19:16Z</t>
+  </si>
+  <si>
+    <t>"63ebaabe03a5c7545d29f7b5"</t>
+  </si>
+  <si>
+    <t>Іван</t>
+  </si>
+  <si>
+    <t>лютцау</t>
+  </si>
+  <si>
+    <t>lsl@fpoczt.com.pl</t>
+  </si>
+  <si>
+    <t>8(916) 494-42-65</t>
+  </si>
+  <si>
+    <t>2021-08-12T17:39:56Z</t>
+  </si>
+  <si>
+    <t>"63ebaabe03a5c7545d29f7b6"</t>
+  </si>
+  <si>
+    <t>Вікторія</t>
+  </si>
+  <si>
+    <t>носач</t>
+  </si>
+  <si>
+    <t>belegayy_semn@rambler.ru</t>
+  </si>
+  <si>
+    <t>8(985) 445-55-76</t>
+  </si>
+  <si>
+    <t>2021-08-13T08:01:57Z</t>
+  </si>
+  <si>
+    <t>"63ebaabe03a5c7545d29f7b7"</t>
+  </si>
+  <si>
+    <t>максимчуклюдмилавасильевна</t>
+  </si>
+  <si>
+    <t>bogdan-fominov@rambler.ru</t>
+  </si>
+  <si>
+    <t>8(919) 723-60-14</t>
+  </si>
+  <si>
+    <t>2021-08-13T11:15:02Z</t>
+  </si>
+  <si>
+    <t>"63ebaabe03a5c7545d29f7b8"</t>
+  </si>
+  <si>
+    <t>Антоніна</t>
+  </si>
+  <si>
+    <t>гетьманенко</t>
+  </si>
+  <si>
+    <t>leshhenjaviktor@rambler.ru</t>
+  </si>
+  <si>
+    <t>8(916) 733-39-17</t>
+  </si>
+  <si>
+    <t>2021-08-13T18:12:27Z</t>
+  </si>
+  <si>
+    <t>"63ebaabe03a5c7545d29f7b9"</t>
+  </si>
+  <si>
+    <t>Назар</t>
+  </si>
+  <si>
+    <t>лилиана</t>
+  </si>
+  <si>
+    <t>kuzjanintaras@rambler.ru</t>
+  </si>
+  <si>
+    <t>8(916) 428-52-32</t>
+  </si>
+  <si>
+    <t>2021-08-13T20:58:05Z</t>
+  </si>
+  <si>
+    <t>"63ebaabe03a5c7545d29f7ba"</t>
+  </si>
+  <si>
+    <t>Марко</t>
+  </si>
+  <si>
+    <t>aleksey</t>
+  </si>
+  <si>
+    <t>d.sfcdws.dfgf@e-poradnikowo24.pl</t>
+  </si>
+  <si>
+    <t>8(909) 936-92-04</t>
+  </si>
+  <si>
+    <t>2021-08-13T21:13:03Z</t>
+  </si>
+  <si>
+    <t>"63ebaabe03a5c7545d29f7bb"</t>
+  </si>
+  <si>
+    <t>korjavin.stanislav@rambler.ru</t>
+  </si>
+  <si>
+    <t>8(967) 160-00-64</t>
+  </si>
+  <si>
+    <t>2021-08-13T21:14:14Z</t>
+  </si>
+  <si>
+    <t>"63ebaabe03a5c7545d29f7bc"</t>
+  </si>
+  <si>
     <t>Ольга</t>
   </si>
   <si>
-    <t>петрова</t>
-  </si>
-  <si>
-    <t>denboe7@126.com</t>
-  </si>
-  <si>
-    <t>8(903) 535-06-61</t>
-  </si>
-  <si>
-    <t>2021-08-06T17:04:15Z</t>
+    <t>гаврилина</t>
+  </si>
+  <si>
+    <t>ptr-novosilov@rambler.ru</t>
+  </si>
+  <si>
+    <t>8(910) 791-44-79</t>
+  </si>
+  <si>
+    <t>2021-08-15T19:26:42Z</t>
+  </si>
+  <si>
+    <t>"63ebaabe03a5c7545d29f7bd"</t>
+  </si>
+  <si>
+    <t>Тетяна</t>
+  </si>
+  <si>
+    <t>остроумова</t>
+  </si>
+  <si>
+    <t>vashhenko_kirill@rambler.ru</t>
+  </si>
+  <si>
+    <t>8(919) 494-98-57</t>
+  </si>
+  <si>
+    <t>2021-08-16T06:31:22Z</t>
   </si>
 </sst>
 </file>
@@ -648,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O31"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -707,7 +1064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -741,293 +1098,969 @@
       <c r="N2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="J4">
+        <v>3000</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="N7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8">
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D9">
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="N9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>33</v>
+      </c>
+      <c r="L10" t="s">
+        <v>79</v>
       </c>
       <c r="N10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="O10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D11">
         <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17">
         <v>30</v>
       </c>
-      <c r="H11" t="s">
+      <c r="E17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" t="s">
+        <v>130</v>
+      </c>
+      <c r="O18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" t="s">
+        <v>135</v>
+      </c>
+      <c r="O19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22">
         <v>31</v>
       </c>
-      <c r="I11" t="s">
+      <c r="E22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" t="s">
+        <v>163</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
         <v>32</v>
       </c>
-      <c r="N11" t="s">
-        <v>84</v>
+      <c r="I24" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" t="s">
+        <v>33</v>
+      </c>
+      <c r="N26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>179</v>
+      </c>
+      <c r="F27" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>185</v>
+      </c>
+      <c r="F28" t="s">
+        <v>186</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" t="s">
+        <v>22</v>
+      </c>
+      <c r="N28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>189</v>
+      </c>
+      <c r="F29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D30">
+        <v>25</v>
+      </c>
+      <c r="E30" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" t="s">
+        <v>196</v>
+      </c>
+      <c r="G30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" t="s">
+        <v>22</v>
+      </c>
+      <c r="N30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C31" t="s">
+        <v>200</v>
+      </c>
+      <c r="D31">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>201</v>
+      </c>
+      <c r="F31" t="s">
+        <v>202</v>
+      </c>
+      <c r="G31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" t="s">
+        <v>34</v>
+      </c>
+      <c r="N31" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/src/files/paid.xlsx
+++ b/src/files/paid.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -58,223 +58,130 @@
     <t>Manager</t>
   </si>
   <si>
-    <t>"63ebaabe03a5c7545d29f79e"</t>
-  </si>
-  <si>
-    <t>Лідія!</t>
-  </si>
-  <si>
-    <t>Cтепанов</t>
-  </si>
-  <si>
-    <t>zep77@mail.ru</t>
-  </si>
-  <si>
-    <t>8(977) 291-25-38</t>
+    <t>"641c21418b904c6356c7f69a"</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>PCX</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>vip</t>
+  </si>
+  <si>
+    <t>In work</t>
+  </si>
+  <si>
+    <t>2022-06-01T12:00:01Z</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>"641c21418b904c6356c7f696"</t>
+  </si>
+  <si>
+    <t>Домінік</t>
+  </si>
+  <si>
+    <t>JCX</t>
+  </si>
+  <si>
+    <t>minimal</t>
+  </si>
+  <si>
+    <t>2022-05-30T16:01:27Z</t>
+  </si>
+  <si>
+    <t>"641c21418b904c6356c7f695"</t>
+  </si>
+  <si>
+    <t>Роман</t>
+  </si>
+  <si>
+    <t>QACX</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>2022-05-30T15:38:05Z</t>
+  </si>
+  <si>
+    <t>"641c21418b904c6356c7f692"</t>
+  </si>
+  <si>
+    <t>Юра</t>
   </si>
   <si>
     <t>FS</t>
   </si>
   <si>
-    <t>static</t>
-  </si>
-  <si>
     <t>pro</t>
   </si>
   <si>
-    <t>In work</t>
-  </si>
-  <si>
-    <t>2021-08-04T18:18:23Z</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>"63ebaabe03a5c7545d29f79f"</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>алексей</t>
-  </si>
-  <si>
-    <t>ryn09@mail.ru</t>
-  </si>
-  <si>
-    <t>8(191) 532-42-44</t>
-  </si>
-  <si>
-    <t>QACX</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>minimal</t>
-  </si>
-  <si>
-    <t>2021-08-05T08:25:48Z</t>
-  </si>
-  <si>
-    <t>"63ebaabe03a5c7545d29f7a0"</t>
-  </si>
-  <si>
-    <t>Лариса</t>
-  </si>
-  <si>
-    <t>пехов</t>
-  </si>
-  <si>
-    <t>8(926) 542-63-11</t>
-  </si>
-  <si>
-    <t>Doubling</t>
-  </si>
-  <si>
-    <t>2021-08-05T08:31:03Z</t>
-  </si>
-  <si>
-    <t>"63ebaabe03a5c7545d29f7a1"</t>
-  </si>
-  <si>
-    <t>Артем</t>
-  </si>
-  <si>
-    <t>довгаль</t>
-  </si>
-  <si>
-    <t>laura@filme-2015.eu</t>
-  </si>
-  <si>
-    <t>8(953) 285-88-96</t>
-  </si>
-  <si>
-    <t>JCX</t>
-  </si>
-  <si>
-    <t>premium</t>
-  </si>
-  <si>
-    <t>2021-08-05T12:01:37Z</t>
-  </si>
-  <si>
-    <t>"63ebaabe03a5c7545d29f7a3"</t>
-  </si>
-  <si>
-    <t>Денис</t>
-  </si>
-  <si>
-    <t>григорьев</t>
-  </si>
-  <si>
-    <t>toha2507@mail.ru</t>
-  </si>
-  <si>
-    <t>8(977) 898-14-82</t>
+    <t>2022-05-30T12:54:49Z</t>
+  </si>
+  <si>
+    <t>"641c21418b904c6356c7f690"</t>
+  </si>
+  <si>
+    <t>Юлія</t>
   </si>
   <si>
     <t>JSCX</t>
   </si>
   <si>
-    <t>2021-08-05T18:58:13Z</t>
-  </si>
-  <si>
-    <t>"63ebaabe03a5c7545d29f7a4"</t>
-  </si>
-  <si>
-    <t>Давид</t>
-  </si>
-  <si>
-    <t>пахомова</t>
-  </si>
-  <si>
-    <t>serzh_gordeev_88@mail.ru</t>
-  </si>
-  <si>
-    <t>8(920) 766-32-83</t>
-  </si>
-  <si>
-    <t>incubator</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>2021-08-06T07:08:25Z</t>
-  </si>
-  <si>
-    <t>"63ebaabe03a5c7545d29f7a5"</t>
-  </si>
-  <si>
-    <t>шарков</t>
-  </si>
-  <si>
-    <t>filaevskys@mail.ru</t>
-  </si>
-  <si>
-    <t>8(929) 937-12-20</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2021-08-06T11:22:44Z</t>
-  </si>
-  <si>
-    <t>"63ebaabe03a5c7545d29f7a6"</t>
-  </si>
-  <si>
-    <t>о.морозова</t>
-  </si>
-  <si>
-    <t>skreebldp@yandex.ru</t>
-  </si>
-  <si>
-    <t>8(965) 307-46-49</t>
-  </si>
-  <si>
-    <t>2021-08-06T11:22:56Z</t>
-  </si>
-  <si>
-    <t>"63ebaabe03a5c7545d29f7a7"</t>
-  </si>
-  <si>
-    <t>Ольга!</t>
-  </si>
-  <si>
-    <t>петрова</t>
-  </si>
-  <si>
-    <t>denboe7@126.com</t>
-  </si>
-  <si>
-    <t>8(903) 535-06-61</t>
-  </si>
-  <si>
-    <t>Agree</t>
-  </si>
-  <si>
-    <t>2021-08-06T17:04:15Z</t>
-  </si>
-  <si>
-    <t>"63ebaabe03a5c7545d29f7a9"</t>
-  </si>
-  <si>
-    <t>Юрій!</t>
-  </si>
-  <si>
-    <t>нефедов</t>
-  </si>
-  <si>
-    <t>kostyukova-y@yandex.ru</t>
-  </si>
-  <si>
-    <t>8(903) 102-32-09</t>
-  </si>
-  <si>
-    <t>2021-08-07T06:36:10Z</t>
+    <t>2022-05-30T11:55:09Z</t>
+  </si>
+  <si>
+    <t>"641c21418b904c6356c7f68f"</t>
+  </si>
+  <si>
+    <t>2022-05-30T10:12:15Z</t>
+  </si>
+  <si>
+    <t>"641c21418b904c6356c7f685"</t>
+  </si>
+  <si>
+    <t>Володимир</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>2022-05-28T07:09:57Z</t>
+  </si>
+  <si>
+    <t>"641c21418b904c6356c7f683"</t>
+  </si>
+  <si>
+    <t>2022-05-28T07:09:42Z</t>
+  </si>
+  <si>
+    <t>"641c21418b904c6356c7f681"</t>
+  </si>
+  <si>
+    <t>Сергій</t>
+  </si>
+  <si>
+    <t>2022-05-27T11:05:05Z</t>
+  </si>
+  <si>
+    <t>"641c21418b904c6356c7f67e"</t>
+  </si>
+  <si>
+    <t>Андрій</t>
+  </si>
+  <si>
+    <t>2022-05-27T05:33:10Z</t>
   </si>
 </sst>
 </file>
@@ -727,89 +634,89 @@
         <v>17</v>
       </c>
       <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="I3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" t="s">
         <v>28</v>
       </c>
-      <c r="D3">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
@@ -818,276 +725,246 @@
         <v>32</v>
       </c>
       <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" t="s">
         <v>33</v>
       </c>
-      <c r="J4">
-        <v>3000</v>
-      </c>
-      <c r="L4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D5">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
         <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
       </c>
       <c r="H5" t="s">
         <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="M5" t="s">
+        <v>17</v>
       </c>
       <c r="N5" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>17</v>
       </c>
       <c r="N6" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
         <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" t="s">
-        <v>62</v>
+        <v>37</v>
+      </c>
+      <c r="M7" t="s">
+        <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N8" t="s">
-        <v>69</v>
-      </c>
-      <c r="O8" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="N9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="N10" t="s">
-        <v>81</v>
-      </c>
-      <c r="O10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N11" t="s">
-        <v>87</v>
-      </c>
-      <c r="O11" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/src/files/paid.xlsx
+++ b/src/files/paid.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -58,130 +58,37 @@
     <t>Manager</t>
   </si>
   <si>
-    <t>"641c21418b904c6356c7f69a"</t>
-  </si>
-  <si>
-    <t>Иван</t>
+    <t>"641c21418b904c6356c7f3b1"</t>
+  </si>
+  <si>
+    <t>Давид</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>PCX</t>
+    <t>serzh_gordeev_88@mail.ru</t>
+  </si>
+  <si>
+    <t>8(920) 766-32-83</t>
+  </si>
+  <si>
+    <t>JSCX</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>vip</t>
-  </si>
-  <si>
-    <t>In work</t>
-  </si>
-  <si>
-    <t>2022-06-01T12:00:01Z</t>
+    <t>incubator</t>
+  </si>
+  <si>
+    <t>Doubling</t>
+  </si>
+  <si>
+    <t>2021-08-06T07:08:25Z</t>
   </si>
   <si>
     <t>Admin</t>
-  </si>
-  <si>
-    <t>"641c21418b904c6356c7f696"</t>
-  </si>
-  <si>
-    <t>Домінік</t>
-  </si>
-  <si>
-    <t>JCX</t>
-  </si>
-  <si>
-    <t>minimal</t>
-  </si>
-  <si>
-    <t>2022-05-30T16:01:27Z</t>
-  </si>
-  <si>
-    <t>"641c21418b904c6356c7f695"</t>
-  </si>
-  <si>
-    <t>Роман</t>
-  </si>
-  <si>
-    <t>QACX</t>
-  </si>
-  <si>
-    <t>static</t>
-  </si>
-  <si>
-    <t>2022-05-30T15:38:05Z</t>
-  </si>
-  <si>
-    <t>"641c21418b904c6356c7f692"</t>
-  </si>
-  <si>
-    <t>Юра</t>
-  </si>
-  <si>
-    <t>FS</t>
-  </si>
-  <si>
-    <t>pro</t>
-  </si>
-  <si>
-    <t>2022-05-30T12:54:49Z</t>
-  </si>
-  <si>
-    <t>"641c21418b904c6356c7f690"</t>
-  </si>
-  <si>
-    <t>Юлія</t>
-  </si>
-  <si>
-    <t>JSCX</t>
-  </si>
-  <si>
-    <t>2022-05-30T11:55:09Z</t>
-  </si>
-  <si>
-    <t>"641c21418b904c6356c7f68f"</t>
-  </si>
-  <si>
-    <t>2022-05-30T10:12:15Z</t>
-  </si>
-  <si>
-    <t>"641c21418b904c6356c7f685"</t>
-  </si>
-  <si>
-    <t>Володимир</t>
-  </si>
-  <si>
-    <t>FE</t>
-  </si>
-  <si>
-    <t>2022-05-28T07:09:57Z</t>
-  </si>
-  <si>
-    <t>"641c21418b904c6356c7f683"</t>
-  </si>
-  <si>
-    <t>2022-05-28T07:09:42Z</t>
-  </si>
-  <si>
-    <t>"641c21418b904c6356c7f681"</t>
-  </si>
-  <si>
-    <t>Сергій</t>
-  </si>
-  <si>
-    <t>2022-05-27T11:05:05Z</t>
-  </si>
-  <si>
-    <t>"641c21418b904c6356c7f67e"</t>
-  </si>
-  <si>
-    <t>Андрій</t>
-  </si>
-  <si>
-    <t>2022-05-27T05:33:10Z</t>
   </si>
 </sst>
 </file>
@@ -564,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -634,337 +541,31 @@
         <v>17</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" t="s">
-        <v>37</v>
-      </c>
-      <c r="N9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" t="s">
-        <v>27</v>
-      </c>
-      <c r="N11" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
